--- a/hybridOfActiTimeProject/data/ActiTimeTestData.xlsx
+++ b/hybridOfActiTimeProject/data/ActiTimeTestData.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\git\repository\hybridOfActiTimeProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E637B7F6-3EB1-4A36-9436-368DF38938E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6443A-4B9B-48D3-8A18-5B6ED2462A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D761645C-EC4B-4DEA-BD53-C312350B0378}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidcreds" sheetId="1" r:id="rId1"/>
-    <sheet name="validcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="mgr" sheetId="3" r:id="rId2"/>
+    <sheet name="customerListandProjectList" sheetId="4" r:id="rId3"/>
+    <sheet name="validcreds" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>USERNAME</t>
   </si>
@@ -86,6 +88,27 @@
   </si>
   <si>
     <t>ADmin</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>Customer_name</t>
+  </si>
+  <si>
+    <t>ICICI BANK</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>WEB_APPLICATION</t>
   </si>
 </sst>
 </file>
@@ -109,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,9 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +479,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +489,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -545,11 +575,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3395563-A915-42F9-9800-25EAD9BF4120}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D78B94-2FA1-4CF3-B2C4-A7EAF4071D40}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D9F44-7A86-4E15-A189-41B28E65C0B9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,10 +660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -571,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
